--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -425,26 +425,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="E2">
-        <v>189.2399</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>523.1079</v>
+        <v>539.082</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H2">
-        <v>0.3617607380809963</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>56704946421920.65</v>
+        <v>399559536791.8976</v>
       </c>
       <c r="J2">
-        <v>0.4588295339399009</v>
+        <v>0.9608188629714224</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +447,44 @@
         <v>0.9608188629714224</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>496.2734</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1181558597422.223</v>
+      </c>
+      <c r="J3">
+        <v>0.959412460905782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -429,22 +429,22 @@
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0527</v>
       </c>
       <c r="F2">
-        <v>539.082</v>
+        <v>0.0974</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5410677618069815</v>
       </c>
       <c r="I2">
-        <v>399559536791.8976</v>
+        <v>2951.8969</v>
       </c>
       <c r="J2">
-        <v>0.9608188629714224</v>
+        <v>0.8925714369397251</v>
       </c>
     </row>
     <row r="3">
@@ -453,35 +453,225 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>m%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>0.3989</v>
+      </c>
+      <c r="F3">
+        <v>0.6781</v>
+      </c>
+      <c r="G3">
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>0.588261318389618</v>
+      </c>
+      <c r="I3">
+        <v>360178.4933</v>
+      </c>
+      <c r="J3">
+        <v>0.8599796044645488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>m%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>0.3989</v>
+      </c>
+      <c r="F4">
+        <v>0.6781</v>
+      </c>
+      <c r="G4">
+        <v>0.03</v>
+      </c>
+      <c r="H4">
+        <v>0.588261318389618</v>
+      </c>
+      <c r="I4">
+        <v>360178.4933</v>
+      </c>
+      <c r="J4">
+        <v>0.8599796044645488</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>539.082</v>
+      </c>
+      <c r="G5">
+        <v>0.04</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>399559536791.8976</v>
+      </c>
+      <c r="J5">
+        <v>0.9608188629714224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>POT</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>0.0827</v>
+      </c>
+      <c r="F6">
+        <v>0.1381</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>0.5988414192614048</v>
+      </c>
+      <c r="I6">
+        <v>92226.60709999999</v>
+      </c>
+      <c r="J6">
+        <v>0.3505038379899719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>m%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>0.5491</v>
+      </c>
+      <c r="F7">
+        <v>1.0464</v>
+      </c>
+      <c r="G7">
+        <v>0.04</v>
+      </c>
+      <c r="H7">
+        <v>0.5247515290519879</v>
+      </c>
+      <c r="I7">
+        <v>3978503.3091</v>
+      </c>
+      <c r="J7">
+        <v>0.856099824277081</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>TCH</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F8">
         <v>496.2734</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>0.04</v>
       </c>
-      <c r="H3">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I8">
         <v>1181558597422.223</v>
       </c>
-      <c r="J3">
+      <c r="J8">
         <v>0.959412460905782</v>
       </c>
     </row>
